--- a/src/test/java/TestData/BasicTestsData/SelectDropdownListDemoData.xlsx
+++ b/src/test/java/TestData/BasicTestsData/SelectDropdownListDemoData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\SeleniumEasyFramework_Project\src\test\java\TestData\BasicTestsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4422D06-2F28-4CA0-B5D2-82F2C02ACD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3551F2F-C48B-4BD7-A8F4-E415625FAAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2295" windowWidth="21645" windowHeight="11385" activeTab="1" xr2:uid="{FD9F9041-F195-453F-B132-23F1C4ACD1DF}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21645" windowHeight="11385" activeTab="2" xr2:uid="{FD9F9041-F195-453F-B132-23F1C4ACD1DF}"/>
   </bookViews>
   <sheets>
     <sheet name="selectSelectValueData" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>value</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>First selected option is : California</t>
+  </si>
+  <si>
+    <t>Failed for Raport Purpoose</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BBA15-ACC8-4E67-A8E1-EE54E952C3D2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -563,10 +566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745FEA6B-B1B9-4EDF-8FB3-AA7EDF6B8178}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +587,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
